--- a/assets/notClickedUsers.xlsx
+++ b/assets/notClickedUsers.xlsx
@@ -399,30 +399,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Email</v>
+        <v>email</v>
       </c>
       <c r="B1" s="1" t="str">
-        <v>CompanyName</v>
+        <v>company</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>id</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>gogagohjhjfghjadze@outlook.com</v>
+        <v>gggggggg@gmail.com</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>bero</v>
+        <v>gio</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>gio</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>gio</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>